--- a/medicine/Mort/Kofun_de_Shizuhatagayama/Kofun_de_Shizuhatagayama.xlsx
+++ b/medicine/Mort/Kofun_de_Shizuhatagayama/Kofun_de_Shizuhatagayama.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le kofun de Shizuhatayama (賤機山古墳?) est un kofun (tumulus) circulaire situé dans l'emprise du complexe de Shizuoka Sengen-jinja à Aoi-ku, Shizuoka. au Japon. Il est protégé en tant que « site historique national ».
 </t>
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé sur la colline juste derrière le honden du sanctuaire Ohtoshimioya, le tumulus dispose d'une chambre horizontale de pierres taillées, surmontée d'une coupole en pierre d'environ 7 m de diamètre. La chambre funéraire intérieure a une longueur de 6,5 m pour une hauteur de 2,3 m et une largeur de 1,8 m. Un tunnel de 18,2 m de long bordé de roches relie la chambre funéraire à une ouverture dans le flanc du coteau. Quelque six cents rochers de la taille d'une tête provenant de la proche Abe-gawa ont été utilisés pour sa construction.
 La chambre funéraire contient un sarcophage de pierre en tuff de la péninsule d'Izu.
@@ -544,7 +558,9 @@
           <t>Source de la traduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Shizuhatagayama Kofun » (voir la liste des auteurs).</t>
         </is>
